--- a/biology/Zoologie/Dasypeltis_medici/Dasypeltis_medici.xlsx
+++ b/biology/Zoologie/Dasypeltis_medici/Dasypeltis_medici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dasypeltis medici est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dasypeltis medici est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 dans le sud du Kenya ;
 au Malawi ;
 dans le Nord et le centre du Mozambique ;
@@ -548,9 +562,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 octobre 2011)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 octobre 2011) :
 Dasypeltis medici lamuensis Gans, 1957
 Dasypeltis medici medici (Bianconi, 1859)</t>
         </is>
@@ -580,7 +596,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bianconi, 1859 : Specimina Zoologica Mosambicana - Fasc. XII, p. 497-506 (texte intégral).
 Gans, 1957 : Dasypeltis medici lamuensis, a new race of egg-eating snkae (Ophidia, Reptilia) from coastal East Africa. Breviora, vol. 79, p. 1-13 (texte intégral).</t>
